--- a/flows/IAUF_fund_flow_data.xlsx
+++ b/flows/IAUF_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1441"/>
+  <dimension ref="A1:B1458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14845,6 +14845,176 @@
         <v>-2.668085</v>
       </c>
     </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1458" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
